--- a/res/david_le.xlsx
+++ b/res/david_le.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aruksh/Google Drive/Personal/Projects and Practices/TaikoLineage/res/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aruksh/Google Drive/Personal/Projects and Practices/Lineage_Tree/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE72325-CF33-F647-B4D0-9272283FF18F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A514193A-FD1E-3C4F-A4F8-5E0228C831AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>Aruksh Patel</t>
+  </si>
+  <si>
+    <t>Tin</t>
+  </si>
+  <si>
+    <t>Duong</t>
+  </si>
+  <si>
+    <t>Allen Pau</t>
   </si>
 </sst>
 </file>
@@ -875,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,6 +920,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>145</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/res/david_le.xlsx
+++ b/res/david_le.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aruksh/Google Drive/Personal/Projects and Practices/Lineage_Tree/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A514193A-FD1E-3C4F-A4F8-5E0228C831AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3465AF94-D7A3-AA4C-A379-33E2DF66E5C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Allen Pau</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -887,7 +890,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,8 +919,8 @@
       <c r="C2">
         <v>131</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -944,8 +947,8 @@
       <c r="C4">
         <v>145</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -955,8 +958,8 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
       <c r="D5">
         <v>145</v>

--- a/res/david_le.xlsx
+++ b/res/david_le.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aruksh/Google Drive/Personal/Projects and Practices/Lineage_Tree/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3465AF94-D7A3-AA4C-A379-33E2DF66E5C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD5EF51-5419-5A43-989C-570991B8E78E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="david_le" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -37,16 +37,55 @@
     <t>Aruksh Patel</t>
   </si>
   <si>
-    <t>Tin</t>
-  </si>
-  <si>
-    <t>Duong</t>
-  </si>
-  <si>
     <t>Allen Pau</t>
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>David Le</t>
+  </si>
+  <si>
+    <t>Jonathan Nguyen</t>
+  </si>
+  <si>
+    <t>Charlie Nguyen</t>
+  </si>
+  <si>
+    <t>Binh Nguyen</t>
+  </si>
+  <si>
+    <t>Luke Nguyen</t>
+  </si>
+  <si>
+    <t>Bao Nguyen</t>
+  </si>
+  <si>
+    <t>Danny Slief</t>
+  </si>
+  <si>
+    <t>Joe Khong</t>
+  </si>
+  <si>
+    <t>Tommy Ngo</t>
+  </si>
+  <si>
+    <t>Huan Nguyen</t>
+  </si>
+  <si>
+    <t>Peter Trinh</t>
+  </si>
+  <si>
+    <t>Tin Nguyen</t>
+  </si>
+  <si>
+    <t>Duong Lam</t>
+  </si>
+  <si>
+    <t>Steven Tu</t>
+  </si>
+  <si>
+    <t>Wayne Lin</t>
   </si>
 </sst>
 </file>
@@ -530,8 +569,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -887,13 +927,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -911,58 +954,240 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>145</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+      <c r="D8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1">
+        <v>116120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>97</v>
+      </c>
+      <c r="D10">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>116</v>
+      </c>
+      <c r="D11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>152</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>136</v>
+      </c>
+      <c r="D12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>158</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>152</v>
+      </c>
+      <c r="D13">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>169</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>158</v>
+      </c>
+      <c r="D14">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>176</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>169</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>97</v>
+      </c>
+      <c r="D16">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/res/david_le.xlsx
+++ b/res/david_le.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aruksh/Google Drive/Personal/Projects and Practices/Lineage_Tree/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD5EF51-5419-5A43-989C-570991B8E78E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA484410-2C31-114D-B6C8-254D21960F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>big_id</t>
-  </si>
-  <si>
-    <t>little_id</t>
   </si>
   <si>
     <t>Aruksh Patel</t>
@@ -930,7 +927,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,22 +945,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -971,13 +962,10 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>4</v>
-      </c>
-      <c r="D3">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -985,13 +973,10 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>30</v>
-      </c>
-      <c r="D4">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -999,13 +984,10 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>48</v>
-      </c>
-      <c r="D5">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1013,13 +995,10 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>56</v>
-      </c>
-      <c r="D6">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1027,13 +1006,10 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>65</v>
-      </c>
-      <c r="D7">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1041,13 +1017,10 @@
         <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>75</v>
-      </c>
-      <c r="D8">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1055,27 +1028,22 @@
         <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>81</v>
       </c>
-      <c r="D9" s="1">
-        <v>116120</v>
-      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>97</v>
-      </c>
-      <c r="D10">
-        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1083,13 +1051,10 @@
         <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>116</v>
-      </c>
-      <c r="D11">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1097,13 +1062,10 @@
         <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>136</v>
-      </c>
-      <c r="D12">
-        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1111,13 +1073,10 @@
         <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>152</v>
-      </c>
-      <c r="D13">
-        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1125,13 +1084,10 @@
         <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>158</v>
-      </c>
-      <c r="D14">
-        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1139,13 +1095,10 @@
         <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>169</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1153,41 +1106,32 @@
         <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>97</v>
       </c>
-      <c r="D16">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>120</v>
       </c>
-      <c r="D17">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>129</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/res/david_le.xlsx
+++ b/res/david_le.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aruksh/Google Drive/Personal/Projects and Practices/Lineage_Tree/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA484410-2C31-114D-B6C8-254D21960F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54A1B7D-5958-A44D-9C53-26F8E8CDC13A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,9 +566,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -924,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -935,7 +934,7 @@
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -946,7 +945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -957,7 +956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>30</v>
       </c>
@@ -968,7 +967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>48</v>
       </c>
@@ -979,7 +978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>56</v>
       </c>
@@ -990,7 +989,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>65</v>
       </c>
@@ -1001,7 +1000,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>75</v>
       </c>
@@ -1012,7 +1011,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>81</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>97</v>
       </c>
@@ -1033,9 +1032,8 @@
       <c r="C9">
         <v>81</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>116</v>
       </c>
@@ -1046,7 +1044,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>136</v>
       </c>
@@ -1057,7 +1055,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>152</v>
       </c>
@@ -1068,7 +1066,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>158</v>
       </c>
@@ -1079,7 +1077,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>169</v>
       </c>
@@ -1090,7 +1088,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>176</v>
       </c>
@@ -1101,7 +1099,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>120</v>
       </c>
